--- a/Climate_Resilience_Ratings.xlsx
+++ b/Climate_Resilience_Ratings.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zdtf2146\OneDrive - Finance WA\Desktop\TG50\upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FINW26769\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FA32C4-144C-4EC7-A3AD-E0F4D37CB478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD58EDC9-6699-48BE-9D59-44C8931644F0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8130"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="6" r:id="rId1"/>
@@ -1941,8 +1940,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2320,7 +2319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2430,10 +2429,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2445,6 +2444,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2454,27 +2474,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2537,6 +2537,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2674,7 +2675,7 @@
             <c:numRef>
               <c:f>'Rating Tool Data'!$B$2:$B$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>50</c:v>
@@ -2770,7 +2771,7 @@
             <c:numRef>
               <c:f>'Rating Tool Data'!$C$2:$C$5</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>86.666666666666671</c:v>
@@ -3133,7 +3134,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3841,61 +3842,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>122463</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>593058</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="A black text on a white background&#10;&#10;AI-generated content may be incorrect.">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E27FF30B-92BA-D6E5-D612-47B452CC7844}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="122463" y="108857"/>
-          <a:ext cx="5981488" cy="1102179"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -4892,16 +4838,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342DBDD0-28F2-4E21-83D8-7BED732FCDDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AO78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection sqref="A1:AO6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:41">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -4946,7 +4892,7 @@
       <c r="AN1" s="40"/>
       <c r="AO1" s="40"/>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:41">
       <c r="A2" s="40"/>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -4989,7 +4935,7 @@
       <c r="AN2" s="40"/>
       <c r="AO2" s="40"/>
     </row>
-    <row r="3" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:41">
       <c r="A3" s="40"/>
       <c r="B3" s="40"/>
       <c r="C3" s="40"/>
@@ -5032,7 +4978,7 @@
       <c r="AN3" s="40"/>
       <c r="AO3" s="40"/>
     </row>
-    <row r="4" spans="1:41" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:41" ht="27.75" customHeight="1">
       <c r="A4" s="40"/>
       <c r="B4" s="40"/>
       <c r="C4" s="40"/>
@@ -5075,7 +5021,7 @@
       <c r="AN4" s="40"/>
       <c r="AO4" s="40"/>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:41">
       <c r="A5" s="40"/>
       <c r="B5" s="40"/>
       <c r="C5" s="40"/>
@@ -5118,7 +5064,7 @@
       <c r="AN5" s="40"/>
       <c r="AO5" s="40"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:41">
       <c r="A6" s="40"/>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -5161,7 +5107,7 @@
       <c r="AN6" s="40"/>
       <c r="AO6" s="40"/>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:41">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -5260,7 +5206,7 @@
       <c r="AN7" s="3"/>
       <c r="AO7" s="3"/>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:41">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -5359,7 +5305,7 @@
       <c r="AN8" s="3"/>
       <c r="AO8" s="3"/>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:41">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -5458,7 +5404,7 @@
       <c r="AN9" s="3"/>
       <c r="AO9" s="3"/>
     </row>
-    <row r="10" spans="1:41" ht="42.75" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="10" spans="1:41" ht="42.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -5539,7 +5485,7 @@
       <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
     </row>
-    <row r="11" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -5638,7 +5584,7 @@
       <c r="AN11" s="3"/>
       <c r="AO11" s="3"/>
     </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:41">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -5727,7 +5673,7 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:41">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -5816,7 +5762,7 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:41">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -5905,7 +5851,7 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:41">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -5994,7 +5940,7 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:41">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -6083,7 +6029,7 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:41">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -6182,7 +6128,7 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:41">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -6281,7 +6227,7 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="15.5">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -6380,7 +6326,7 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:41" ht="15.5">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -6479,7 +6425,7 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:41" ht="15.5">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -6578,7 +6524,7 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="15.5">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -6677,7 +6623,7 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:41" ht="15.5">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -6776,7 +6722,7 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:41" ht="20">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -6875,7 +6821,7 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" ht="15.5">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
@@ -6974,7 +6920,7 @@
       <c r="AN25" s="3"/>
       <c r="AO25" s="3"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41">
       <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
@@ -7073,7 +7019,7 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="3"/>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:41">
       <c r="A27" s="3" t="s">
         <v>0</v>
       </c>
@@ -7172,7 +7118,7 @@
       <c r="AN27" s="3"/>
       <c r="AO27" s="3"/>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:41">
       <c r="A28" s="3" t="s">
         <v>0</v>
       </c>
@@ -7265,7 +7211,7 @@
       <c r="AN28" s="3"/>
       <c r="AO28" s="3"/>
     </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:41">
       <c r="A29" s="3" t="s">
         <v>0</v>
       </c>
@@ -7352,7 +7298,7 @@
       <c r="AN29" s="3"/>
       <c r="AO29" s="3"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:41">
       <c r="A30" s="3" t="s">
         <v>0</v>
       </c>
@@ -7433,7 +7379,7 @@
       <c r="AN30" s="3"/>
       <c r="AO30" s="3"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:41">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -7512,7 +7458,7 @@
       <c r="AN31" s="3"/>
       <c r="AO31" s="3"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:41">
       <c r="A32" s="3" t="s">
         <v>0</v>
       </c>
@@ -7589,7 +7535,7 @@
       <c r="AN32" s="3"/>
       <c r="AO32" s="3"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:41">
       <c r="A33" s="3" t="s">
         <v>0</v>
       </c>
@@ -7688,7 +7634,7 @@
       <c r="AN33" s="3"/>
       <c r="AO33" s="3"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:41">
       <c r="A34" s="3" t="s">
         <v>0</v>
       </c>
@@ -7787,7 +7733,7 @@
       <c r="AN34" s="3"/>
       <c r="AO34" s="3"/>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:41">
       <c r="A35" s="3" t="s">
         <v>0</v>
       </c>
@@ -7886,7 +7832,7 @@
       <c r="AN35" s="3"/>
       <c r="AO35" s="3"/>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:41">
       <c r="A36" s="3" t="s">
         <v>0</v>
       </c>
@@ -7985,7 +7931,7 @@
       <c r="AN36" s="3"/>
       <c r="AO36" s="3"/>
     </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:41">
       <c r="A37" s="3" t="s">
         <v>0</v>
       </c>
@@ -8084,7 +8030,7 @@
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:41">
       <c r="A38" s="3" t="s">
         <v>0</v>
       </c>
@@ -8183,7 +8129,7 @@
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:41">
       <c r="A39" s="3" t="s">
         <v>0</v>
       </c>
@@ -8282,7 +8228,7 @@
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:41">
       <c r="A40" s="3" t="s">
         <v>0</v>
       </c>
@@ -8381,7 +8327,7 @@
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:41">
       <c r="A41" s="3" t="s">
         <v>0</v>
       </c>
@@ -8480,7 +8426,7 @@
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:41">
       <c r="A42" s="3" t="s">
         <v>0</v>
       </c>
@@ -8579,7 +8525,7 @@
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:41">
       <c r="A43" s="3" t="s">
         <v>0</v>
       </c>
@@ -8678,7 +8624,7 @@
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:41">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -8721,7 +8667,7 @@
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:41">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -8764,7 +8710,7 @@
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:41">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -8807,7 +8753,7 @@
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:41">
       <c r="A47" s="3" t="s">
         <v>0</v>
       </c>
@@ -8906,7 +8852,7 @@
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:41">
       <c r="A48" s="3" t="s">
         <v>0</v>
       </c>
@@ -9005,7 +8951,7 @@
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41">
       <c r="A49" s="3" t="s">
         <v>0</v>
       </c>
@@ -9104,7 +9050,7 @@
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41">
       <c r="A50" s="3" t="s">
         <v>0</v>
       </c>
@@ -9203,7 +9149,7 @@
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41">
       <c r="A51" s="3" t="s">
         <v>0</v>
       </c>
@@ -9302,7 +9248,7 @@
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41">
       <c r="A52" s="3" t="s">
         <v>0</v>
       </c>
@@ -9401,7 +9347,7 @@
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41">
       <c r="A53" s="3" t="s">
         <v>0</v>
       </c>
@@ -9500,7 +9446,7 @@
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41">
       <c r="A54" s="3" t="s">
         <v>0</v>
       </c>
@@ -9599,7 +9545,7 @@
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41">
       <c r="A55" s="3" t="s">
         <v>0</v>
       </c>
@@ -9698,7 +9644,7 @@
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41">
       <c r="A56" s="3" t="s">
         <v>0</v>
       </c>
@@ -9797,7 +9743,7 @@
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41">
       <c r="A57" s="3" t="s">
         <v>0</v>
       </c>
@@ -9896,7 +9842,7 @@
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41">
       <c r="A58" s="3" t="s">
         <v>0</v>
       </c>
@@ -9995,7 +9941,7 @@
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41">
       <c r="A59" s="3" t="s">
         <v>0</v>
       </c>
@@ -10094,7 +10040,7 @@
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41">
       <c r="A60" s="3" t="s">
         <v>0</v>
       </c>
@@ -10193,7 +10139,7 @@
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41">
       <c r="A61" s="3" t="s">
         <v>0</v>
       </c>
@@ -10292,7 +10238,7 @@
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41">
       <c r="A62" s="3" t="s">
         <v>0</v>
       </c>
@@ -10387,7 +10333,7 @@
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41">
       <c r="A63" s="3" t="s">
         <v>0</v>
       </c>
@@ -10482,7 +10428,7 @@
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
@@ -10568,7 +10514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:28">
       <c r="A65" s="2" t="s">
         <v>0</v>
       </c>
@@ -10654,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:28">
       <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
@@ -10740,7 +10686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:28">
       <c r="A67" s="2" t="s">
         <v>0</v>
       </c>
@@ -10826,7 +10772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:28">
       <c r="A68" s="2" t="s">
         <v>0</v>
       </c>
@@ -10912,7 +10858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:28">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
@@ -10998,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:28">
       <c r="A70" s="2" t="s">
         <v>0</v>
       </c>
@@ -11084,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:28">
       <c r="A71" s="2" t="s">
         <v>0</v>
       </c>
@@ -11170,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:28">
       <c r="A72" s="2" t="s">
         <v>0</v>
       </c>
@@ -11256,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:28">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -11342,7 +11288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:28">
       <c r="A74" s="2" t="s">
         <v>0</v>
       </c>
@@ -11428,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:28">
       <c r="A75" s="2" t="s">
         <v>0</v>
       </c>
@@ -11514,7 +11460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:28">
       <c r="A76" s="2" t="s">
         <v>0</v>
       </c>
@@ -11600,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:28">
       <c r="A77" s="2" t="s">
         <v>0</v>
       </c>
@@ -11686,7 +11632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:28">
       <c r="A78" s="2" t="s">
         <v>0</v>
       </c>
@@ -11784,25 +11730,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{639E3912-ED69-43EC-A42E-4F2EE631921F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G221"/>
   <sheetViews>
     <sheetView topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A68" sqref="A1:G221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="123.28515625" customWidth="1"/>
+    <col min="1" max="1" width="123.25" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.4140625" customWidth="1"/>
+    <col min="6" max="6" width="11.58203125" customWidth="1"/>
+    <col min="7" max="7" width="8.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="35" thickBot="1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
@@ -11825,34 +11771,34 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+    <row r="2" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="51">
+      <c r="G3" s="46">
         <f>SUM(D3:D9)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="14" t="s">
         <v>12</v>
       </c>
@@ -11871,7 +11817,7 @@
       </c>
       <c r="G4" s="44"/>
     </row>
-    <row r="5" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="23">
       <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
@@ -11882,7 +11828,7 @@
       <c r="F5" s="17"/>
       <c r="G5" s="44"/>
     </row>
-    <row r="6" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="14" t="s">
         <v>241</v>
       </c>
@@ -11901,7 +11847,7 @@
       </c>
       <c r="G6" s="44"/>
     </row>
-    <row r="7" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="23">
       <c r="A7" s="13" t="s">
         <v>16</v>
       </c>
@@ -11912,7 +11858,7 @@
       <c r="F7" s="17"/>
       <c r="G7" s="44"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="14" t="s">
         <v>242</v>
       </c>
@@ -11931,7 +11877,7 @@
       </c>
       <c r="G8" s="44"/>
     </row>
-    <row r="9" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.5" thickBot="1">
       <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
@@ -11942,7 +11888,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" s="13" t="s">
         <v>19</v>
       </c>
@@ -11958,7 +11904,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
@@ -11969,7 +11915,7 @@
       <c r="F11" s="17"/>
       <c r="G11" s="44"/>
     </row>
-    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" s="13" t="s">
         <v>21</v>
       </c>
@@ -11988,7 +11934,7 @@
       </c>
       <c r="G12" s="44"/>
     </row>
-    <row r="13" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="23">
       <c r="A13" s="14" t="s">
         <v>243</v>
       </c>
@@ -11999,7 +11945,7 @@
       <c r="F13" s="17"/>
       <c r="G13" s="44"/>
     </row>
-    <row r="14" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="23">
       <c r="A14" s="14" t="s">
         <v>244</v>
       </c>
@@ -12010,7 +11956,7 @@
       <c r="F14" s="17"/>
       <c r="G14" s="44"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.5" thickBot="1">
       <c r="A15" s="16" t="s">
         <v>23</v>
       </c>
@@ -12029,7 +11975,7 @@
       </c>
       <c r="G15" s="45"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" s="13" t="s">
         <v>25</v>
       </c>
@@ -12045,7 +11991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7">
       <c r="A17" s="14" t="s">
         <v>26</v>
       </c>
@@ -12064,7 +12010,7 @@
       </c>
       <c r="G17" s="44"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7">
       <c r="A18" s="13" t="s">
         <v>28</v>
       </c>
@@ -12075,7 +12021,7 @@
       <c r="F18" s="17"/>
       <c r="G18" s="44"/>
     </row>
-    <row r="19" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="23.5" thickBot="1">
       <c r="A19" s="16" t="s">
         <v>29</v>
       </c>
@@ -12094,7 +12040,7 @@
       </c>
       <c r="G19" s="45"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7">
       <c r="A20" s="13" t="s">
         <v>31</v>
       </c>
@@ -12118,7 +12064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7">
       <c r="A21" s="14" t="s">
         <v>33</v>
       </c>
@@ -12129,7 +12075,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="44"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7">
       <c r="A22" s="13" t="s">
         <v>34</v>
       </c>
@@ -12140,7 +12086,7 @@
       <c r="F22" s="17"/>
       <c r="G22" s="44"/>
     </row>
-    <row r="23" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="23">
       <c r="A23" s="13" t="s">
         <v>35</v>
       </c>
@@ -12151,7 +12097,7 @@
       <c r="F23" s="17"/>
       <c r="G23" s="44"/>
     </row>
-    <row r="24" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="23.5" thickBot="1">
       <c r="A24" s="24" t="s">
         <v>245</v>
       </c>
@@ -12170,7 +12116,7 @@
       </c>
       <c r="G24" s="45"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7">
       <c r="A25" s="13" t="s">
         <v>37</v>
       </c>
@@ -12194,7 +12140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7">
       <c r="A26" s="14" t="s">
         <v>39</v>
       </c>
@@ -12205,7 +12151,7 @@
       <c r="F26" s="17"/>
       <c r="G26" s="44"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7">
       <c r="A27" s="13" t="s">
         <v>40</v>
       </c>
@@ -12216,7 +12162,7 @@
       <c r="F27" s="17"/>
       <c r="G27" s="44"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7">
       <c r="A28" s="14" t="s">
         <v>246</v>
       </c>
@@ -12227,7 +12173,7 @@
       <c r="F28" s="17"/>
       <c r="G28" s="44"/>
     </row>
-    <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="23">
       <c r="A29" s="13" t="s">
         <v>41</v>
       </c>
@@ -12246,7 +12192,7 @@
       </c>
       <c r="G29" s="44"/>
     </row>
-    <row r="30" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
         <v>247</v>
       </c>
@@ -12257,7 +12203,7 @@
       <c r="F30" s="17"/>
       <c r="G30" s="44"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7">
       <c r="A31" s="13" t="s">
         <v>43</v>
       </c>
@@ -12276,7 +12222,7 @@
       </c>
       <c r="G31" s="44"/>
     </row>
-    <row r="32" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7">
       <c r="A32" s="13" t="s">
         <v>45</v>
       </c>
@@ -12287,7 +12233,7 @@
       <c r="F32" s="18"/>
       <c r="G32" s="44"/>
     </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="14.5" thickBot="1">
       <c r="A33" s="27"/>
       <c r="B33" s="45"/>
       <c r="C33" s="20" t="s">
@@ -12304,7 +12250,7 @@
       </c>
       <c r="G33" s="45"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7">
       <c r="A34" s="13" t="s">
         <v>47</v>
       </c>
@@ -12320,7 +12266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
         <v>48</v>
       </c>
@@ -12339,7 +12285,7 @@
       </c>
       <c r="G35" s="44"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="13" t="s">
         <v>50</v>
       </c>
@@ -12358,7 +12304,7 @@
       </c>
       <c r="G36" s="44"/>
     </row>
-    <row r="37" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="23.5" thickBot="1">
       <c r="A37" s="16" t="s">
         <v>52</v>
       </c>
@@ -12369,7 +12315,7 @@
       <c r="F37" s="34"/>
       <c r="G37" s="45"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" s="13" t="s">
         <v>53</v>
       </c>
@@ -12385,7 +12331,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" s="14" t="s">
         <v>54</v>
       </c>
@@ -12404,7 +12350,7 @@
       </c>
       <c r="G39" s="44"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7">
       <c r="A40" s="15" t="s">
         <v>56</v>
       </c>
@@ -12415,7 +12361,7 @@
       <c r="F40" s="18"/>
       <c r="G40" s="44"/>
     </row>
-    <row r="41" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="23">
       <c r="A41" s="13" t="s">
         <v>57</v>
       </c>
@@ -12434,7 +12380,7 @@
       </c>
       <c r="G41" s="44"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7">
       <c r="A42" s="13" t="s">
         <v>59</v>
       </c>
@@ -12453,7 +12399,7 @@
       </c>
       <c r="G42" s="44"/>
     </row>
-    <row r="43" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7">
       <c r="A43" s="13" t="s">
         <v>61</v>
       </c>
@@ -12464,7 +12410,7 @@
       <c r="F43" s="18"/>
       <c r="G43" s="44"/>
     </row>
-    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="14.5" thickBot="1">
       <c r="A44" s="27"/>
       <c r="B44" s="45"/>
       <c r="C44" s="20" t="s">
@@ -12481,7 +12427,7 @@
       </c>
       <c r="G44" s="45"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7">
       <c r="A45" s="35" t="s">
         <v>63</v>
       </c>
@@ -12504,7 +12450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" s="35" t="s">
         <v>64</v>
       </c>
@@ -12526,18 +12472,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="41" t="s">
+    <row r="47" spans="1:7">
+      <c r="A47" s="51" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="13" t="s">
         <v>66</v>
       </c>
@@ -12551,7 +12497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7">
       <c r="A49" s="14" t="s">
         <v>67</v>
       </c>
@@ -12562,7 +12508,7 @@
       <c r="F49" s="17"/>
       <c r="G49" s="44"/>
     </row>
-    <row r="50" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7">
       <c r="A50" s="15" t="s">
         <v>248</v>
       </c>
@@ -12583,7 +12529,7 @@
       </c>
       <c r="G50" s="44"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7">
       <c r="A51" s="13" t="s">
         <v>70</v>
       </c>
@@ -12594,7 +12540,7 @@
       <c r="F51" s="17"/>
       <c r="G51" s="44"/>
     </row>
-    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="14.5" thickBot="1">
       <c r="A52" s="27" t="s">
         <v>71</v>
       </c>
@@ -12613,7 +12559,7 @@
       </c>
       <c r="G52" s="45"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7">
       <c r="A53" s="13" t="s">
         <v>73</v>
       </c>
@@ -12627,7 +12573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7">
       <c r="A54" s="14" t="s">
         <v>74</v>
       </c>
@@ -12638,7 +12584,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="44"/>
     </row>
-    <row r="55" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7">
       <c r="A55" s="13" t="s">
         <v>249</v>
       </c>
@@ -12651,7 +12597,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="44"/>
     </row>
-    <row r="56" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="23">
       <c r="A56" s="14" t="s">
         <v>250</v>
       </c>
@@ -12670,7 +12616,7 @@
       </c>
       <c r="G56" s="44"/>
     </row>
-    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="14.5" thickBot="1">
       <c r="A57" s="27" t="s">
         <v>71</v>
       </c>
@@ -12681,7 +12627,7 @@
       <c r="F57" s="20"/>
       <c r="G57" s="45"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7">
       <c r="A58" s="21" t="s">
         <v>251</v>
       </c>
@@ -12695,7 +12641,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7">
       <c r="A59" s="22" t="s">
         <v>76</v>
       </c>
@@ -12706,7 +12652,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="44"/>
     </row>
-    <row r="60" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7">
       <c r="A60" s="15" t="s">
         <v>252</v>
       </c>
@@ -12719,7 +12665,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="44"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7">
       <c r="A61" s="13" t="s">
         <v>253</v>
       </c>
@@ -12738,7 +12684,7 @@
       </c>
       <c r="G61" s="44"/>
     </row>
-    <row r="62" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7">
       <c r="A62" s="13" t="s">
         <v>254</v>
       </c>
@@ -12759,7 +12705,7 @@
       </c>
       <c r="G62" s="44"/>
     </row>
-    <row r="63" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="14" t="s">
         <v>255</v>
       </c>
@@ -12770,7 +12716,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="44"/>
     </row>
-    <row r="64" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="14.5" thickBot="1">
       <c r="A64" s="24" t="s">
         <v>71</v>
       </c>
@@ -12789,7 +12735,7 @@
       </c>
       <c r="G64" s="45"/>
     </row>
-    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="24" customHeight="1">
       <c r="A65" s="13" t="s">
         <v>82</v>
       </c>
@@ -12805,7 +12751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="14" t="s">
         <v>83</v>
       </c>
@@ -12816,7 +12762,7 @@
       <c r="F66" s="9"/>
       <c r="G66" s="44"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
       <c r="A67" s="15" t="s">
         <v>256</v>
       </c>
@@ -12835,7 +12781,7 @@
       </c>
       <c r="G67" s="44"/>
     </row>
-    <row r="68" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="23">
       <c r="A68" s="13" t="s">
         <v>257</v>
       </c>
@@ -12846,7 +12792,7 @@
       <c r="F68" s="9"/>
       <c r="G68" s="44"/>
     </row>
-    <row r="69" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="23">
       <c r="A69" s="14" t="s">
         <v>258</v>
       </c>
@@ -12865,7 +12811,7 @@
       </c>
       <c r="G69" s="44"/>
     </row>
-    <row r="70" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="23">
       <c r="A70" s="14" t="s">
         <v>259</v>
       </c>
@@ -12876,7 +12822,7 @@
       <c r="F70" s="9"/>
       <c r="G70" s="44"/>
     </row>
-    <row r="71" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="14.5" thickBot="1">
       <c r="A71" s="24" t="s">
         <v>260</v>
       </c>
@@ -12887,11 +12833,11 @@
       <c r="F71" s="20"/>
       <c r="G71" s="45"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
       <c r="A72" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="46" t="s">
+      <c r="B72" s="53" t="s">
         <v>68</v>
       </c>
       <c r="C72" s="9"/>
@@ -12903,22 +12849,22 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="47"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
       <c r="G73" s="44"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B74" s="47"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="9" t="s">
         <v>88</v>
       </c>
@@ -12933,11 +12879,11 @@
       </c>
       <c r="G74" s="44"/>
     </row>
-    <row r="75" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="14.5" thickBot="1">
       <c r="A75" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="48"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="37" t="s">
         <v>90</v>
       </c>
@@ -12952,7 +12898,7 @@
       </c>
       <c r="G75" s="45"/>
     </row>
-    <row r="76" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="24" customHeight="1">
       <c r="A76" s="13" t="s">
         <v>91</v>
       </c>
@@ -12968,7 +12914,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="23">
       <c r="A77" s="14" t="s">
         <v>93</v>
       </c>
@@ -12979,7 +12925,7 @@
       <c r="F77" s="10"/>
       <c r="G77" s="44"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
       <c r="A78" s="15" t="s">
         <v>262</v>
       </c>
@@ -12990,7 +12936,7 @@
       <c r="F78" s="10"/>
       <c r="G78" s="44"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
       <c r="A79" s="13" t="s">
         <v>263</v>
       </c>
@@ -13009,7 +12955,7 @@
       </c>
       <c r="G79" s="44"/>
     </row>
-    <row r="80" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="34.5">
       <c r="A80" s="14" t="s">
         <v>264</v>
       </c>
@@ -13028,7 +12974,7 @@
       </c>
       <c r="G80" s="44"/>
     </row>
-    <row r="81" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="14.5" thickBot="1">
       <c r="A81" s="24" t="s">
         <v>71</v>
       </c>
@@ -13039,7 +12985,7 @@
       <c r="F81" s="37"/>
       <c r="G81" s="45"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7">
       <c r="A82" s="13" t="s">
         <v>96</v>
       </c>
@@ -13053,7 +12999,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7">
       <c r="A83" s="14" t="s">
         <v>97</v>
       </c>
@@ -13064,7 +13010,7 @@
       <c r="F83" s="9"/>
       <c r="G83" s="44"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7">
       <c r="A84" s="15" t="s">
         <v>265</v>
       </c>
@@ -13083,7 +13029,7 @@
       </c>
       <c r="G84" s="44"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7">
       <c r="A85" s="13" t="s">
         <v>266</v>
       </c>
@@ -13094,7 +13040,7 @@
       <c r="F85" s="9"/>
       <c r="G85" s="44"/>
     </row>
-    <row r="86" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="23">
       <c r="A86" s="14" t="s">
         <v>267</v>
       </c>
@@ -13115,7 +13061,7 @@
       </c>
       <c r="G86" s="44"/>
     </row>
-    <row r="87" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="23">
       <c r="A87" s="14" t="s">
         <v>268</v>
       </c>
@@ -13126,7 +13072,7 @@
       <c r="F87" s="36"/>
       <c r="G87" s="44"/>
     </row>
-    <row r="88" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="14.5" thickBot="1">
       <c r="A88" s="24" t="s">
         <v>71</v>
       </c>
@@ -13137,7 +13083,7 @@
       <c r="F88" s="37"/>
       <c r="G88" s="45"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7">
       <c r="A89" s="13" t="s">
         <v>100</v>
       </c>
@@ -13151,7 +13097,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="23">
       <c r="A90" s="14" t="s">
         <v>101</v>
       </c>
@@ -13162,7 +13108,7 @@
       <c r="F90" s="9"/>
       <c r="G90" s="44"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7">
       <c r="A91" s="15" t="s">
         <v>269</v>
       </c>
@@ -13181,7 +13127,7 @@
       </c>
       <c r="G91" s="44"/>
     </row>
-    <row r="92" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="23">
       <c r="A92" s="13" t="s">
         <v>270</v>
       </c>
@@ -13202,7 +13148,7 @@
       </c>
       <c r="G92" s="44"/>
     </row>
-    <row r="93" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="14.5" thickBot="1">
       <c r="A93" s="24" t="s">
         <v>271</v>
       </c>
@@ -13213,7 +13159,7 @@
       <c r="F93" s="37"/>
       <c r="G93" s="45"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7">
       <c r="A94" s="13" t="s">
         <v>104</v>
       </c>
@@ -13227,7 +13173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7">
       <c r="A95" s="14" t="s">
         <v>105</v>
       </c>
@@ -13238,7 +13184,7 @@
       <c r="F95" s="9"/>
       <c r="G95" s="44"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7">
       <c r="A96" s="15" t="s">
         <v>272</v>
       </c>
@@ -13257,7 +13203,7 @@
       </c>
       <c r="G96" s="44"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
       <c r="A97" s="13" t="s">
         <v>273</v>
       </c>
@@ -13268,7 +13214,7 @@
       <c r="F97" s="8"/>
       <c r="G97" s="44"/>
     </row>
-    <row r="98" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="23">
       <c r="A98" s="14" t="s">
         <v>274</v>
       </c>
@@ -13289,7 +13235,7 @@
       </c>
       <c r="G98" s="44"/>
     </row>
-    <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="14.5" thickBot="1">
       <c r="A99" s="24" t="s">
         <v>71</v>
       </c>
@@ -13300,7 +13246,7 @@
       <c r="F99" s="37"/>
       <c r="G99" s="45"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
       <c r="A100" s="35" t="s">
         <v>108</v>
       </c>
@@ -13323,7 +13269,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="14.5" thickBot="1">
       <c r="A101" s="35" t="s">
         <v>109</v>
       </c>
@@ -13345,7 +13291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
       <c r="A102" s="49" t="s">
         <v>110</v>
       </c>
@@ -13356,7 +13302,7 @@
       <c r="F102" s="50"/>
       <c r="G102" s="50"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="13" t="s">
         <v>111</v>
       </c>
@@ -13369,7 +13315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="23">
       <c r="A104" s="14" t="s">
         <v>112</v>
       </c>
@@ -13380,7 +13326,7 @@
       <c r="F104" s="17"/>
       <c r="G104" s="44"/>
     </row>
-    <row r="105" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="23">
       <c r="A105" s="15" t="s">
         <v>113</v>
       </c>
@@ -13399,7 +13345,7 @@
       </c>
       <c r="G105" s="44"/>
     </row>
-    <row r="106" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="23">
       <c r="A106" s="13" t="s">
         <v>115</v>
       </c>
@@ -13420,7 +13366,7 @@
       </c>
       <c r="G106" s="44"/>
     </row>
-    <row r="107" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" ht="14.5" thickBot="1">
       <c r="A107" s="27" t="s">
         <v>118</v>
       </c>
@@ -13431,7 +13377,7 @@
       <c r="F107" s="11"/>
       <c r="G107" s="45"/>
     </row>
-    <row r="108" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="23">
       <c r="A108" s="14" t="s">
         <v>119</v>
       </c>
@@ -13444,7 +13390,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
       <c r="A109" s="13" t="s">
         <v>120</v>
       </c>
@@ -13455,7 +13401,7 @@
       <c r="F109" s="9"/>
       <c r="G109" s="44"/>
     </row>
-    <row r="110" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="23">
       <c r="A110" s="14" t="s">
         <v>275</v>
       </c>
@@ -13474,7 +13420,7 @@
       </c>
       <c r="G110" s="44"/>
     </row>
-    <row r="111" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="14" t="s">
         <v>276</v>
       </c>
@@ -13487,7 +13433,7 @@
       <c r="F111" s="8"/>
       <c r="G111" s="44"/>
     </row>
-    <row r="112" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" ht="14.5" thickBot="1">
       <c r="A112" s="24" t="s">
         <v>123</v>
       </c>
@@ -13498,7 +13444,7 @@
       <c r="F112" s="37"/>
       <c r="G112" s="45"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7">
       <c r="A113" s="13" t="s">
         <v>124</v>
       </c>
@@ -13513,7 +13459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="23">
       <c r="A114" s="14" t="s">
         <v>125</v>
       </c>
@@ -13524,7 +13470,7 @@
       <c r="F114" s="9"/>
       <c r="G114" s="44"/>
     </row>
-    <row r="115" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="23">
       <c r="A115" s="13" t="s">
         <v>126</v>
       </c>
@@ -13543,7 +13489,7 @@
       </c>
       <c r="G115" s="44"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7">
       <c r="A116" s="14" t="s">
         <v>277</v>
       </c>
@@ -13554,7 +13500,7 @@
       <c r="F116" s="9"/>
       <c r="G116" s="44"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7">
       <c r="A117" s="14" t="s">
         <v>278</v>
       </c>
@@ -13565,7 +13511,7 @@
       <c r="F117" s="9"/>
       <c r="G117" s="44"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7">
       <c r="A118" s="14" t="s">
         <v>279</v>
       </c>
@@ -13576,7 +13522,7 @@
       <c r="F118" s="8"/>
       <c r="G118" s="44"/>
     </row>
-    <row r="119" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" ht="14.5" thickBot="1">
       <c r="A119" s="24" t="s">
         <v>128</v>
       </c>
@@ -13587,7 +13533,7 @@
       <c r="F119" s="37"/>
       <c r="G119" s="45"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7">
       <c r="A120" s="13" t="s">
         <v>129</v>
       </c>
@@ -13600,7 +13546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="23">
       <c r="A121" s="14" t="s">
         <v>130</v>
       </c>
@@ -13611,7 +13557,7 @@
       <c r="F121" s="17"/>
       <c r="G121" s="44"/>
     </row>
-    <row r="122" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7">
       <c r="A122" s="15" t="s">
         <v>131</v>
       </c>
@@ -13630,7 +13576,7 @@
       </c>
       <c r="G122" s="44"/>
     </row>
-    <row r="123" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="23">
       <c r="A123" s="15" t="s">
         <v>133</v>
       </c>
@@ -13641,7 +13587,7 @@
       <c r="F123" s="17"/>
       <c r="G123" s="44"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7">
       <c r="A124" s="32" t="s">
         <v>280</v>
       </c>
@@ -13660,7 +13606,7 @@
       </c>
       <c r="G124" s="44"/>
     </row>
-    <row r="125" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7">
       <c r="A125" s="32" t="s">
         <v>281</v>
       </c>
@@ -13673,7 +13619,7 @@
       <c r="F125" s="17"/>
       <c r="G125" s="44"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7">
       <c r="A126" s="32" t="s">
         <v>282</v>
       </c>
@@ -13688,7 +13634,7 @@
       </c>
       <c r="G126" s="44"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7">
       <c r="A127" s="13" t="s">
         <v>135</v>
       </c>
@@ -13703,7 +13649,7 @@
       <c r="F127" s="9"/>
       <c r="G127" s="44"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7">
       <c r="A128" s="14" t="s">
         <v>283</v>
       </c>
@@ -13714,7 +13660,7 @@
       <c r="F128" s="9"/>
       <c r="G128" s="44"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7">
       <c r="A129" s="14" t="s">
         <v>284</v>
       </c>
@@ -13725,7 +13671,7 @@
       <c r="F129" s="9"/>
       <c r="G129" s="44"/>
     </row>
-    <row r="130" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" ht="14.5" thickBot="1">
       <c r="A130" s="24" t="s">
         <v>285</v>
       </c>
@@ -13736,7 +13682,7 @@
       <c r="F130" s="11"/>
       <c r="G130" s="45"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7">
       <c r="A131" s="13" t="s">
         <v>137</v>
       </c>
@@ -13749,7 +13695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="34.5">
       <c r="A132" s="14" t="s">
         <v>138</v>
       </c>
@@ -13760,7 +13706,7 @@
       <c r="F132" s="17"/>
       <c r="G132" s="44"/>
     </row>
-    <row r="133" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="23">
       <c r="A133" s="15" t="s">
         <v>139</v>
       </c>
@@ -13773,7 +13719,7 @@
       <c r="F133" s="17"/>
       <c r="G133" s="44"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7">
       <c r="A134" s="14" t="s">
         <v>286</v>
       </c>
@@ -13784,7 +13730,7 @@
       <c r="F134" s="17"/>
       <c r="G134" s="44"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7">
       <c r="A135" s="14" t="s">
         <v>287</v>
       </c>
@@ -13803,7 +13749,7 @@
       </c>
       <c r="G135" s="44"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7">
       <c r="A136" s="14" t="s">
         <v>288</v>
       </c>
@@ -13814,7 +13760,7 @@
       <c r="F136" s="17"/>
       <c r="G136" s="44"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7">
       <c r="A137" s="13" t="s">
         <v>141</v>
       </c>
@@ -13825,7 +13771,7 @@
       <c r="F137" s="17"/>
       <c r="G137" s="44"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7">
       <c r="A138" s="14" t="s">
         <v>289</v>
       </c>
@@ -13836,7 +13782,7 @@
       <c r="F138" s="17"/>
       <c r="G138" s="44"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7">
       <c r="A139" s="14" t="s">
         <v>290</v>
       </c>
@@ -13847,7 +13793,7 @@
       <c r="F139" s="17"/>
       <c r="G139" s="44"/>
     </row>
-    <row r="140" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="23">
       <c r="A140" s="14" t="s">
         <v>291</v>
       </c>
@@ -13866,7 +13812,7 @@
       </c>
       <c r="G140" s="44"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7">
       <c r="A141" s="14" t="s">
         <v>292</v>
       </c>
@@ -13877,7 +13823,7 @@
       <c r="F141" s="9"/>
       <c r="G141" s="44"/>
     </row>
-    <row r="142" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" ht="23.5" thickBot="1">
       <c r="A142" s="27" t="s">
         <v>143</v>
       </c>
@@ -13888,7 +13834,7 @@
       <c r="F142" s="11"/>
       <c r="G142" s="45"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7">
       <c r="A143" s="13" t="s">
         <v>144</v>
       </c>
@@ -13901,7 +13847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="23">
       <c r="A144" s="14" t="s">
         <v>145</v>
       </c>
@@ -13912,7 +13858,7 @@
       <c r="F144" s="17"/>
       <c r="G144" s="44"/>
     </row>
-    <row r="145" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="34.5">
       <c r="A145" s="13" t="s">
         <v>146</v>
       </c>
@@ -13931,7 +13877,7 @@
       <c r="F145" s="17"/>
       <c r="G145" s="44"/>
     </row>
-    <row r="146" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" ht="14.5" thickBot="1">
       <c r="A146" s="27" t="s">
         <v>148</v>
       </c>
@@ -13942,7 +13888,7 @@
       <c r="F146" s="37"/>
       <c r="G146" s="45"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="13" t="s">
         <v>149</v>
       </c>
@@ -13955,7 +13901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
       <c r="A148" s="14" t="s">
         <v>150</v>
       </c>
@@ -13966,7 +13912,7 @@
       <c r="F148" s="17"/>
       <c r="G148" s="44"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="28" t="s">
         <v>151</v>
       </c>
@@ -13985,7 +13931,7 @@
       </c>
       <c r="G149" s="44"/>
     </row>
-    <row r="150" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="23">
       <c r="A150" s="14" t="s">
         <v>153</v>
       </c>
@@ -14006,7 +13952,7 @@
       </c>
       <c r="G150" s="44"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="33" t="s">
         <v>293</v>
       </c>
@@ -14017,7 +13963,7 @@
       <c r="F151" s="9"/>
       <c r="G151" s="44"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
       <c r="A152" s="33" t="s">
         <v>294</v>
       </c>
@@ -14028,7 +13974,7 @@
       <c r="F152" s="9"/>
       <c r="G152" s="44"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="33" t="s">
         <v>295</v>
       </c>
@@ -14039,7 +13985,7 @@
       <c r="F153" s="36"/>
       <c r="G153" s="44"/>
     </row>
-    <row r="154" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" ht="14.5" thickBot="1">
       <c r="A154" s="24" t="s">
         <v>155</v>
       </c>
@@ -14050,7 +13996,7 @@
       <c r="F154" s="37"/>
       <c r="G154" s="45"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="13" t="s">
         <v>156</v>
       </c>
@@ -14063,7 +14009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
       <c r="A156" s="14" t="s">
         <v>157</v>
       </c>
@@ -14076,7 +14022,7 @@
       <c r="F156" s="17"/>
       <c r="G156" s="44"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="13" t="s">
         <v>158</v>
       </c>
@@ -14095,7 +14041,7 @@
       </c>
       <c r="G157" s="44"/>
     </row>
-    <row r="158" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
       <c r="A158" s="13" t="s">
         <v>160</v>
       </c>
@@ -14114,7 +14060,7 @@
       </c>
       <c r="G158" s="44"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
       <c r="A159" s="13" t="s">
         <v>162</v>
       </c>
@@ -14133,7 +14079,7 @@
       </c>
       <c r="G159" s="44"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="14" t="s">
         <v>296</v>
       </c>
@@ -14144,7 +14090,7 @@
       <c r="F160" s="18"/>
       <c r="G160" s="44"/>
     </row>
-    <row r="161" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" ht="23.5" thickBot="1">
       <c r="A161" s="27" t="s">
         <v>164</v>
       </c>
@@ -14155,7 +14101,7 @@
       <c r="F161" s="11"/>
       <c r="G161" s="45"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7">
       <c r="A162" s="13" t="s">
         <v>165</v>
       </c>
@@ -14168,7 +14114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7">
       <c r="A163" s="14" t="s">
         <v>166</v>
       </c>
@@ -14179,7 +14125,7 @@
       <c r="F163" s="9"/>
       <c r="G163" s="44"/>
     </row>
-    <row r="164" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="23">
       <c r="A164" s="13" t="s">
         <v>167</v>
       </c>
@@ -14198,7 +14144,7 @@
       </c>
       <c r="G164" s="44"/>
     </row>
-    <row r="165" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="34.5">
       <c r="A165" s="13" t="s">
         <v>169</v>
       </c>
@@ -14219,7 +14165,7 @@
       </c>
       <c r="G165" s="44"/>
     </row>
-    <row r="166" spans="1:7" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" ht="23.5" thickBot="1">
       <c r="A166" s="27" t="s">
         <v>171</v>
       </c>
@@ -14238,7 +14184,7 @@
       </c>
       <c r="G166" s="45"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7">
       <c r="A167" s="49" t="s">
         <v>173</v>
       </c>
@@ -14249,7 +14195,7 @@
       <c r="F167" s="50"/>
       <c r="G167" s="50"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7">
       <c r="A168" s="13" t="s">
         <v>174</v>
       </c>
@@ -14262,7 +14208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7">
       <c r="A169" s="14" t="s">
         <v>175</v>
       </c>
@@ -14273,7 +14219,7 @@
       <c r="F169" s="9"/>
       <c r="G169" s="44"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7">
       <c r="A170" s="29" t="s">
         <v>176</v>
       </c>
@@ -14292,7 +14238,7 @@
       </c>
       <c r="G170" s="44"/>
     </row>
-    <row r="171" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="23">
       <c r="A171" s="13" t="s">
         <v>178</v>
       </c>
@@ -14303,7 +14249,7 @@
       <c r="F171" s="9"/>
       <c r="G171" s="44"/>
     </row>
-    <row r="172" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7">
       <c r="A172" s="14" t="s">
         <v>179</v>
       </c>
@@ -14324,7 +14270,7 @@
       </c>
       <c r="G172" s="44"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7">
       <c r="A173" s="14" t="s">
         <v>297</v>
       </c>
@@ -14335,7 +14281,7 @@
       <c r="F173" s="9"/>
       <c r="G173" s="44"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7">
       <c r="A174" s="14" t="s">
         <v>298</v>
       </c>
@@ -14346,7 +14292,7 @@
       <c r="F174" s="36"/>
       <c r="G174" s="44"/>
     </row>
-    <row r="175" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" ht="14.5" thickBot="1">
       <c r="A175" s="24" t="s">
         <v>181</v>
       </c>
@@ -14357,7 +14303,7 @@
       <c r="F175" s="37"/>
       <c r="G175" s="45"/>
     </row>
-    <row r="176" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" ht="14.5" thickBot="1">
       <c r="A176" s="49" t="s">
         <v>182</v>
       </c>
@@ -14368,11 +14314,11 @@
       <c r="F176" s="50"/>
       <c r="G176" s="50"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7">
       <c r="A177" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B177" s="51" t="s">
+      <c r="B177" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C177" s="10"/>
@@ -14383,7 +14329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="23">
       <c r="A178" s="14" t="s">
         <v>184</v>
       </c>
@@ -14394,7 +14340,7 @@
       <c r="F178" s="9"/>
       <c r="G178" s="44"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7">
       <c r="A179" s="14" t="s">
         <v>299</v>
       </c>
@@ -14405,7 +14351,7 @@
       <c r="F179" s="9"/>
       <c r="G179" s="44"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7">
       <c r="A180" s="14" t="s">
         <v>300</v>
       </c>
@@ -14416,7 +14362,7 @@
       <c r="F180" s="9"/>
       <c r="G180" s="44"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7">
       <c r="A181" s="14" t="s">
         <v>301</v>
       </c>
@@ -14427,7 +14373,7 @@
       <c r="F181" s="9"/>
       <c r="G181" s="44"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7">
       <c r="A182" s="14" t="s">
         <v>302</v>
       </c>
@@ -14438,7 +14384,7 @@
       <c r="F182" s="9"/>
       <c r="G182" s="44"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7">
       <c r="A183" s="14" t="s">
         <v>303</v>
       </c>
@@ -14449,7 +14395,7 @@
       <c r="F183" s="9"/>
       <c r="G183" s="44"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7">
       <c r="A184" s="15" t="s">
         <v>185</v>
       </c>
@@ -14468,7 +14414,7 @@
       </c>
       <c r="G184" s="44"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7">
       <c r="A185" s="13" t="s">
         <v>187</v>
       </c>
@@ -14487,7 +14433,7 @@
       </c>
       <c r="G185" s="44"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7">
       <c r="A186" s="14" t="s">
         <v>304</v>
       </c>
@@ -14498,7 +14444,7 @@
       <c r="F186" s="8"/>
       <c r="G186" s="44"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7">
       <c r="A187" s="14" t="s">
         <v>305</v>
       </c>
@@ -14509,7 +14455,7 @@
       <c r="F187" s="9"/>
       <c r="G187" s="44"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7">
       <c r="A188" s="14" t="s">
         <v>306</v>
       </c>
@@ -14520,7 +14466,7 @@
       <c r="F188" s="36"/>
       <c r="G188" s="44"/>
     </row>
-    <row r="189" spans="1:7" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" ht="23.5" thickBot="1">
       <c r="A189" s="24" t="s">
         <v>189</v>
       </c>
@@ -14531,7 +14477,7 @@
       <c r="F189" s="37"/>
       <c r="G189" s="45"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7">
       <c r="A190" s="13" t="s">
         <v>190</v>
       </c>
@@ -14546,7 +14492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7">
       <c r="A191" s="14" t="s">
         <v>191</v>
       </c>
@@ -14557,7 +14503,7 @@
       <c r="F191" s="9"/>
       <c r="G191" s="44"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7">
       <c r="A192" s="13" t="s">
         <v>192</v>
       </c>
@@ -14568,7 +14514,7 @@
       <c r="F192" s="9"/>
       <c r="G192" s="44"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7">
       <c r="A193" s="13" t="s">
         <v>193</v>
       </c>
@@ -14587,7 +14533,7 @@
       </c>
       <c r="G193" s="44"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7">
       <c r="A194" s="14" t="s">
         <v>195</v>
       </c>
@@ -14606,7 +14552,7 @@
       </c>
       <c r="G194" s="44"/>
     </row>
-    <row r="195" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="23">
       <c r="A195" s="13" t="s">
         <v>197</v>
       </c>
@@ -14625,7 +14571,7 @@
       </c>
       <c r="G195" s="44"/>
     </row>
-    <row r="196" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" ht="14.5" thickBot="1">
       <c r="A196" s="27"/>
       <c r="B196" s="45"/>
       <c r="C196" s="20"/>
@@ -14634,7 +14580,7 @@
       <c r="F196" s="11"/>
       <c r="G196" s="45"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7">
       <c r="A197" s="35" t="s">
         <v>199</v>
       </c>
@@ -14657,7 +14603,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7">
       <c r="A198" s="35" t="s">
         <v>200</v>
       </c>
@@ -14679,34 +14625,34 @@
         <v>100</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="52" t="s">
+    <row r="199" spans="1:7" ht="14.5" thickBot="1">
+      <c r="A199" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="B199" s="53"/>
-      <c r="C199" s="53"/>
-      <c r="D199" s="53"/>
-      <c r="E199" s="53"/>
-      <c r="F199" s="53"/>
-      <c r="G199" s="53"/>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B199" s="48"/>
+      <c r="C199" s="48"/>
+      <c r="D199" s="48"/>
+      <c r="E199" s="48"/>
+      <c r="F199" s="48"/>
+      <c r="G199" s="48"/>
+    </row>
+    <row r="200" spans="1:7">
       <c r="A200" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B200" s="51" t="s">
+      <c r="B200" s="46" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="51">
+      <c r="G200" s="46">
         <f>SUM(D200:D204)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7">
       <c r="A201" s="14" t="s">
         <v>203</v>
       </c>
@@ -14717,7 +14663,7 @@
       <c r="F201" s="10"/>
       <c r="G201" s="44"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7">
       <c r="A202" s="15" t="s">
         <v>204</v>
       </c>
@@ -14736,7 +14682,7 @@
       </c>
       <c r="G202" s="44"/>
     </row>
-    <row r="203" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="23">
       <c r="A203" s="14" t="s">
         <v>307</v>
       </c>
@@ -14747,7 +14693,7 @@
       <c r="F203" s="25"/>
       <c r="G203" s="44"/>
     </row>
-    <row r="204" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" ht="14.5" thickBot="1">
       <c r="A204" s="27"/>
       <c r="B204" s="45"/>
       <c r="C204" s="20"/>
@@ -14756,7 +14702,7 @@
       <c r="F204" s="23"/>
       <c r="G204" s="45"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7">
       <c r="A205" s="13" t="s">
         <v>206</v>
       </c>
@@ -14772,7 +14718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7">
       <c r="A206" s="14" t="s">
         <v>207</v>
       </c>
@@ -14783,7 +14729,7 @@
       <c r="F206" s="10"/>
       <c r="G206" s="44"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7">
       <c r="A207" s="15" t="s">
         <v>208</v>
       </c>
@@ -14802,7 +14748,7 @@
       </c>
       <c r="G207" s="44"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7">
       <c r="A208" s="13" t="s">
         <v>210</v>
       </c>
@@ -14821,7 +14767,7 @@
       </c>
       <c r="G208" s="44"/>
     </row>
-    <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="14.5" thickBot="1">
       <c r="A209" s="16" t="s">
         <v>212</v>
       </c>
@@ -14840,7 +14786,7 @@
       </c>
       <c r="G209" s="45"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="13" t="s">
         <v>214</v>
       </c>
@@ -14856,7 +14802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="23">
       <c r="A211" s="14" t="s">
         <v>216</v>
       </c>
@@ -14867,7 +14813,7 @@
       <c r="F211" s="10"/>
       <c r="G211" s="44"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7">
       <c r="A212" s="15" t="s">
         <v>217</v>
       </c>
@@ -14886,7 +14832,7 @@
       </c>
       <c r="G212" s="44"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7">
       <c r="A213" s="15" t="s">
         <v>219</v>
       </c>
@@ -14905,7 +14851,7 @@
       </c>
       <c r="G213" s="44"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7">
       <c r="A214" s="15" t="s">
         <v>221</v>
       </c>
@@ -14924,7 +14870,7 @@
       </c>
       <c r="G214" s="44"/>
     </row>
-    <row r="215" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" ht="14.5" thickBot="1">
       <c r="A215" s="24" t="s">
         <v>223</v>
       </c>
@@ -14943,7 +14889,7 @@
       </c>
       <c r="G215" s="45"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7">
       <c r="A216" s="13" t="s">
         <v>225</v>
       </c>
@@ -14959,7 +14905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7">
       <c r="A217" s="14" t="s">
         <v>226</v>
       </c>
@@ -14970,7 +14916,7 @@
       <c r="F217" s="10"/>
       <c r="G217" s="44"/>
     </row>
-    <row r="218" spans="1:7" ht="24" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7">
       <c r="A218" s="13" t="s">
         <v>227</v>
       </c>
@@ -14989,7 +14935,7 @@
       </c>
       <c r="G218" s="44"/>
     </row>
-    <row r="219" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="14.5" thickBot="1">
       <c r="A219" s="27" t="s">
         <v>229</v>
       </c>
@@ -15008,7 +14954,7 @@
       </c>
       <c r="G219" s="45"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7">
       <c r="A220" s="35" t="s">
         <v>231</v>
       </c>
@@ -15031,7 +14977,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7">
       <c r="A221" s="35" t="s">
         <v>232</v>
       </c>
@@ -15055,6 +15001,45 @@
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="G108:G112"/>
+    <mergeCell ref="G120:G130"/>
+    <mergeCell ref="G113:G119"/>
+    <mergeCell ref="G48:G52"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="G76:G81"/>
+    <mergeCell ref="G168:G175"/>
+    <mergeCell ref="A167:G167"/>
+    <mergeCell ref="A176:G176"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="G143:G146"/>
+    <mergeCell ref="G131:G142"/>
+    <mergeCell ref="G155:G161"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G33"/>
+    <mergeCell ref="A199:G199"/>
+    <mergeCell ref="G34:G37"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="G210:G215"/>
+    <mergeCell ref="G177:G189"/>
+    <mergeCell ref="G190:G196"/>
+    <mergeCell ref="G147:G154"/>
+    <mergeCell ref="G162:G166"/>
+    <mergeCell ref="G82:G88"/>
+    <mergeCell ref="G89:G93"/>
+    <mergeCell ref="G200:G204"/>
+    <mergeCell ref="G205:G209"/>
+    <mergeCell ref="G53:G57"/>
+    <mergeCell ref="G58:G64"/>
+    <mergeCell ref="G65:G71"/>
+    <mergeCell ref="G72:G75"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="G216:G219"/>
     <mergeCell ref="B190:B196"/>
@@ -15071,45 +15056,6 @@
     <mergeCell ref="B200:B204"/>
     <mergeCell ref="B205:B209"/>
     <mergeCell ref="B210:B215"/>
-    <mergeCell ref="A199:G199"/>
-    <mergeCell ref="G34:G37"/>
-    <mergeCell ref="G38:G44"/>
-    <mergeCell ref="G210:G215"/>
-    <mergeCell ref="G177:G189"/>
-    <mergeCell ref="G190:G196"/>
-    <mergeCell ref="G147:G154"/>
-    <mergeCell ref="G162:G166"/>
-    <mergeCell ref="G82:G88"/>
-    <mergeCell ref="G89:G93"/>
-    <mergeCell ref="G200:G204"/>
-    <mergeCell ref="G205:G209"/>
-    <mergeCell ref="G53:G57"/>
-    <mergeCell ref="G58:G64"/>
-    <mergeCell ref="G65:G71"/>
-    <mergeCell ref="G72:G75"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G33"/>
-    <mergeCell ref="G168:G175"/>
-    <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A176:G176"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="G143:G146"/>
-    <mergeCell ref="G131:G142"/>
-    <mergeCell ref="G155:G161"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="G108:G112"/>
-    <mergeCell ref="G120:G130"/>
-    <mergeCell ref="G113:G119"/>
-    <mergeCell ref="G48:G52"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="G76:G81"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15117,17 +15063,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84181201-31DD-44C0-8A65-CBF36F867F77}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15136,24 +15082,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB6DEB05-E3AD-4867-BD99-441DAA137138}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22" style="56" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="20.58203125" customWidth="1"/>
+    <col min="5" max="5" width="15.1640625" customWidth="1"/>
+    <col min="6" max="6" width="19.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15173,15 +15119,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>238</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="56">
         <f>'Adaptation Scores'!E46</f>
         <v>50</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="56">
         <f>'Adaptation Scores'!F46</f>
         <v>86.666666666666671</v>
       </c>
@@ -15195,15 +15141,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>239</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="56">
         <f>'Adaptation Scores'!E198</f>
         <v>53.333333333333336</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="56">
         <f>'Adaptation Scores'!F198</f>
         <v>90</v>
       </c>
@@ -15217,15 +15163,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>240</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="56">
         <f>'Adaptation Scores'!E101</f>
         <v>53.333333333333336</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="56">
         <f>'Adaptation Scores'!F101</f>
         <v>83.333333333333343</v>
       </c>
@@ -15239,15 +15185,15 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>201</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="56">
         <f>'Adaptation Scores'!E221</f>
         <v>50</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="56">
         <f>'Adaptation Scores'!F221</f>
         <v>80</v>
       </c>
@@ -15263,30 +15209,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c9e14a7e-ff89-4a36-9ad2-e69af96f8643">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0ce68609-2ddd-407a-86eb-1e3f1b6ebb4c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100223CD704AFD82642A1019E69434A5C26" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="aff77b0bab807c87bd9e41634406dade">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c9e14a7e-ff89-4a36-9ad2-e69af96f8643" xmlns:ns3="0ce68609-2ddd-407a-86eb-1e3f1b6ebb4c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="01697e2606bca4ec47c5419ddb3f4aa3" ns2:_="" ns3:_="">
     <xsd:import namespace="c9e14a7e-ff89-4a36-9ad2-e69af96f8643"/>
@@ -15515,32 +15442,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1A86107-FC05-4FAF-8070-92E9B5E6B769}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="0ce68609-2ddd-407a-86eb-1e3f1b6ebb4c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9e14a7e-ff89-4a36-9ad2-e69af96f8643"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87755911-9F24-4CE3-B800-AD2D917B491F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="c9e14a7e-ff89-4a36-9ad2-e69af96f8643">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0ce68609-2ddd-407a-86eb-1e3f1b6ebb4c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5D205CB-D867-4150-B99F-EFF8D13628F1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15557,4 +15479,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87755911-9F24-4CE3-B800-AD2D917B491F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1A86107-FC05-4FAF-8070-92E9B5E6B769}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="0ce68609-2ddd-407a-86eb-1e3f1b6ebb4c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c9e14a7e-ff89-4a36-9ad2-e69af96f8643"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Climate_Resilience_Ratings.xlsx
+++ b/Climate_Resilience_Ratings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FINW26769\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FINW26769\Desktop\TG50\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_Hlk199426009">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2194" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2193" uniqueCount="308">
   <si>
     <t> </t>
   </si>
@@ -2319,7 +2319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2422,17 +2422,15 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,6 +2442,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2453,28 +2466,12 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3242,13 +3239,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3330,41 +3327,71 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>The Climate Resilience Rating Tool has been developed as a practical template to assist project teams</a:t>
+            <a:t>The Climate Resilience Rating Tool </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>assesses the resilience performance of a building's design before and after climate adaptation treatment. It can be used for project team's target setting and as a benchmark for assessing design effectiveness. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="1600" baseline="0">
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>The Tool has been developd to assist project teams throughout each stage of project delivery, as follows. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0">
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>selecting appropriate adaptation measures </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(risk treatements) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600">
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>throughout each stage of project delivery. This tool is designed to be used in conjunction with TG050, and it is essential to follow Sections 3, 4, 5, and 6 of TG050 to determine the appropriate level of resilience and risk treatments for a given project.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3405,7 +3432,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>This is established using the classification system defined in the National Construction Code (NCC) (refer to Section 3 of TG050).</a:t>
+            <a:t>This is established using the classification system defined in the National Construction Code (NCC).</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3446,7 +3473,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>Evaluate the project’s vulnerability by analysing its climate exposure, sensitivity and adaptive capacity (refer to Section 4 &amp; 5 of TG050).</a:t>
+            <a:t>Evaluate the project’s vulnerability by analysing its climate exposure, sensitivity and adaptive capacity.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3519,7 +3546,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>horizons (refer to Section 5 of TG050).</a:t>
+            <a:t>horizons.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3574,7 +3601,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>. These activities help identify priority climate hazards and high-risk items across two future time horizons under a high emissions scenario (refer to Section 5 of TG050).</a:t>
+            <a:t>. These activities help identify priority climate hazards and high-risk items across two future time horizons under a high emissions scenario.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="1" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3744,7 +3771,7 @@
               <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>The cumulative resilience score for each climate hazard group contributes to the project rating tool, providing a visual representation of the project’s resilience before and after adaptation (refer to Section 6 of TG050).</a:t>
+            <a:t>The cumulative resilience score for each climate hazard group contributes to the project rating tool, providing a visual representation of the project’s resilience before and after adaptation.</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -3848,13 +3875,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>50347</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>545647</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>97972</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3945,7 +3972,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>This tool is intended to be used after reviewing the TG050, which outlines a step-by-step process for assessing climate risks, project's vulnerability and determining the need for adaptation measures. According to TG050:</a:t>
+            <a:t>This tool outlines a step-by-step process for assessing climate risks, project's vulnerability and determining the need for adaptation measures. </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3990,38 +4017,6 @@
             <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Refer to TG050 here</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="1" i="0" u="sng">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>(insert link once finalised)</a:t>
-          </a:r>
         </a:p>
         <a:p>
           <a:endParaRPr lang="en-AU" sz="1600">
@@ -4839,162 +4834,360 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO78"/>
+  <dimension ref="A1:AO72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AO6"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:41">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="40"/>
-      <c r="T1" s="40"/>
-      <c r="U1" s="40"/>
-      <c r="V1" s="40"/>
-      <c r="W1" s="40"/>
-      <c r="X1" s="40"/>
-      <c r="Y1" s="40"/>
-      <c r="Z1" s="40"/>
-      <c r="AA1" s="40"/>
-      <c r="AB1" s="40"/>
-      <c r="AC1" s="40"/>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="40"/>
-      <c r="AO1" s="40"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3"/>
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
     </row>
     <row r="2" spans="1:41">
-      <c r="A2" s="40"/>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="40"/>
-      <c r="AC2" s="40"/>
-      <c r="AD2" s="40"/>
-      <c r="AE2" s="40"/>
-      <c r="AF2" s="40"/>
-      <c r="AG2" s="40"/>
-      <c r="AH2" s="40"/>
-      <c r="AI2" s="40"/>
-      <c r="AJ2" s="40"/>
-      <c r="AK2" s="40"/>
-      <c r="AL2" s="40"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="40"/>
-      <c r="AO2" s="40"/>
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="3"/>
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+      <c r="AK2" s="3"/>
+      <c r="AL2" s="3"/>
+      <c r="AM2" s="3"/>
+      <c r="AN2" s="3"/>
+      <c r="AO2" s="3"/>
     </row>
     <row r="3" spans="1:41">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-      <c r="S3" s="40"/>
-      <c r="T3" s="40"/>
-      <c r="U3" s="40"/>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="40"/>
-      <c r="AB3" s="40"/>
-      <c r="AC3" s="40"/>
-      <c r="AD3" s="40"/>
-      <c r="AE3" s="40"/>
-      <c r="AF3" s="40"/>
-      <c r="AG3" s="40"/>
-      <c r="AH3" s="40"/>
-      <c r="AI3" s="40"/>
-      <c r="AJ3" s="40"/>
-      <c r="AK3" s="40"/>
-      <c r="AL3" s="40"/>
-      <c r="AM3" s="40"/>
-      <c r="AN3" s="40"/>
-      <c r="AO3" s="40"/>
-    </row>
-    <row r="4" spans="1:41" ht="27.75" customHeight="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+    </row>
+    <row r="4" spans="1:41" ht="49.5" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>1</v>
+      </c>
       <c r="Q4" s="40"/>
       <c r="R4" s="40"/>
       <c r="S4" s="40"/>
@@ -5004,108 +5197,216 @@
       <c r="W4" s="40"/>
       <c r="X4" s="40"/>
       <c r="Y4" s="40"/>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AG4" s="40"/>
-      <c r="AH4" s="40"/>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40"/>
-      <c r="AO4" s="40"/>
+      <c r="Z4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
     </row>
     <row r="5" spans="1:41">
-      <c r="A5" s="40"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
-      <c r="AA5" s="40"/>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40"/>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="40"/>
-      <c r="AF5" s="40"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="40"/>
-      <c r="AI5" s="40"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="40"/>
-      <c r="AN5" s="40"/>
-      <c r="AO5" s="40"/>
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
     </row>
     <row r="6" spans="1:41">
-      <c r="A6" s="40"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
-      <c r="AA6" s="40"/>
-      <c r="AB6" s="40"/>
-      <c r="AC6" s="40"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="40"/>
-      <c r="AJ6" s="40"/>
-      <c r="AK6" s="40"/>
-      <c r="AL6" s="40"/>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
-      <c r="AO6" s="40"/>
+      <c r="A6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="3"/>
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+      <c r="AK6" s="3"/>
+      <c r="AL6" s="3"/>
+      <c r="AM6" s="3"/>
+      <c r="AN6" s="3"/>
+      <c r="AO6" s="3"/>
     </row>
     <row r="7" spans="1:41">
       <c r="A7" s="3" t="s">
@@ -5156,21 +5457,11 @@
       <c r="P7" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
       <c r="V7" s="3" t="s">
         <v>0</v>
       </c>
@@ -5255,21 +5546,11 @@
       <c r="P8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
       <c r="V8" s="3" t="s">
         <v>0</v>
       </c>
@@ -5354,21 +5635,11 @@
       <c r="P9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q9" s="39"/>
+      <c r="R9" s="39"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39"/>
+      <c r="U9" s="39"/>
       <c r="V9" s="3" t="s">
         <v>0</v>
       </c>
@@ -5450,18 +5721,26 @@
       <c r="O10" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="39" t="s">
-        <v>1</v>
+      <c r="P10" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="Q10" s="39"/>
       <c r="R10" s="39"/>
       <c r="S10" s="39"/>
       <c r="T10" s="39"/>
       <c r="U10" s="39"/>
-      <c r="V10" s="39"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
-      <c r="Y10" s="39"/>
+      <c r="V10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z10" s="3" t="s">
         <v>0</v>
       </c>
@@ -5633,11 +5912,21 @@
       <c r="P12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
+      <c r="Q12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="V12" s="3" t="s">
         <v>0</v>
       </c>
@@ -5673,11 +5962,11 @@
       <c r="AN12" s="3"/>
       <c r="AO12" s="3"/>
     </row>
-    <row r="13" spans="1:41">
+    <row r="13" spans="1:41" ht="15.5">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -5722,11 +6011,21 @@
       <c r="P13" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q13" s="38"/>
-      <c r="R13" s="38"/>
-      <c r="S13" s="38"/>
-      <c r="T13" s="38"/>
-      <c r="U13" s="38"/>
+      <c r="Q13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="V13" s="3" t="s">
         <v>0</v>
       </c>
@@ -5762,11 +6061,11 @@
       <c r="AN13" s="3"/>
       <c r="AO13" s="3"/>
     </row>
-    <row r="14" spans="1:41">
+    <row r="14" spans="1:41" ht="15.5">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -5811,11 +6110,21 @@
       <c r="P14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
+      <c r="Q14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="V14" s="3" t="s">
         <v>0</v>
       </c>
@@ -5851,11 +6160,11 @@
       <c r="AN14" s="3"/>
       <c r="AO14" s="3"/>
     </row>
-    <row r="15" spans="1:41">
+    <row r="15" spans="1:41" ht="15.5">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -5900,11 +6209,21 @@
       <c r="P15" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
+      <c r="Q15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="V15" s="3" t="s">
         <v>0</v>
       </c>
@@ -5940,11 +6259,11 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="3"/>
     </row>
-    <row r="16" spans="1:41">
+    <row r="16" spans="1:41" ht="15.5">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -5989,11 +6308,21 @@
       <c r="P16" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
+      <c r="Q16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="V16" s="3" t="s">
         <v>0</v>
       </c>
@@ -6029,11 +6358,11 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="3"/>
     </row>
-    <row r="17" spans="1:41">
+    <row r="17" spans="1:41" ht="15.5">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -6128,11 +6457,11 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="3"/>
     </row>
-    <row r="18" spans="1:41">
+    <row r="18" spans="1:41" ht="20">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -6326,11 +6655,11 @@
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
     </row>
-    <row r="20" spans="1:41" ht="15.5">
+    <row r="20" spans="1:41">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -6425,11 +6754,11 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:41" ht="15.5">
+    <row r="21" spans="1:41">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -6524,11 +6853,11 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:41" ht="15.5">
+    <row r="22" spans="1:41">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -6573,15 +6902,9 @@
       <c r="P22" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q22" s="3"/>
+      <c r="R22" s="3"/>
+      <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
         <v>0</v>
       </c>
@@ -6623,11 +6946,11 @@
       <c r="AN22" s="3"/>
       <c r="AO22" s="3"/>
     </row>
-    <row r="23" spans="1:41" ht="15.5">
+    <row r="23" spans="1:41">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -6672,24 +6995,12 @@
       <c r="P23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
       <c r="W23" s="3" t="s">
         <v>0</v>
       </c>
@@ -6722,11 +7033,11 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="3"/>
     </row>
-    <row r="24" spans="1:41" ht="20">
+    <row r="24" spans="1:41">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -6771,33 +7082,15 @@
       <c r="P24" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
       <c r="Z24" s="3" t="s">
         <v>0</v>
       </c>
@@ -6821,11 +7114,11 @@
       <c r="AN24" s="3"/>
       <c r="AO24" s="3"/>
     </row>
-    <row r="25" spans="1:41" ht="15.5">
+    <row r="25" spans="1:41">
       <c r="A25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -6870,36 +7163,16 @@
       <c r="P25" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
       <c r="AA25" s="3" t="s">
         <v>0</v>
       </c>
@@ -6969,39 +7242,17 @@
       <c r="P26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
       <c r="AB26" s="3" t="s">
         <v>0</v>
       </c>
@@ -7167,9 +7418,15 @@
       <c r="P28" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
+      <c r="Q28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="T28" s="3" t="s">
         <v>0</v>
       </c>
@@ -7260,12 +7517,24 @@
       <c r="P29" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
+      <c r="Q29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="W29" s="3" t="s">
         <v>0</v>
       </c>
@@ -7347,15 +7616,33 @@
       <c r="P30" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
+      <c r="Q30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="Z30" s="3" t="s">
         <v>0</v>
       </c>
@@ -7428,16 +7715,36 @@
       <c r="P31" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
+      <c r="Q31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AA31" s="3" t="s">
         <v>0</v>
       </c>
@@ -7507,17 +7814,39 @@
       <c r="P32" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
+      <c r="Q32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AB32" s="3" t="s">
         <v>0</v>
       </c>
@@ -8031,90 +8360,34 @@
       <c r="AO37" s="3"/>
     </row>
     <row r="38" spans="1:41">
-      <c r="A38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
+      <c r="Q38" s="3"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="3"/>
+      <c r="U38" s="3"/>
+      <c r="V38" s="3"/>
+      <c r="W38" s="3"/>
+      <c r="X38" s="3"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="3"/>
+      <c r="AB38" s="3"/>
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
@@ -8130,90 +8403,34 @@
       <c r="AO38" s="3"/>
     </row>
     <row r="39" spans="1:41">
-      <c r="A39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB39" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
@@ -8229,90 +8446,34 @@
       <c r="AO39" s="3"/>
     </row>
     <row r="40" spans="1:41">
-      <c r="A40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA40" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB40" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
@@ -8625,34 +8786,90 @@
       <c r="AO43" s="3"/>
     </row>
     <row r="44" spans="1:41">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
+      <c r="A44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC44" s="3"/>
       <c r="AD44" s="3"/>
       <c r="AE44" s="3"/>
@@ -8668,34 +8885,90 @@
       <c r="AO44" s="3"/>
     </row>
     <row r="45" spans="1:41">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
+      <c r="A45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
@@ -8711,34 +8984,90 @@
       <c r="AO45" s="3"/>
     </row>
     <row r="46" spans="1:41">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
+      <c r="A46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
@@ -9717,12 +10046,8 @@
       <c r="X56" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y56" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y56" s="3"/>
+      <c r="Z56" s="3"/>
       <c r="AA56" s="3" t="s">
         <v>0</v>
       </c>
@@ -9816,12 +10141,8 @@
       <c r="X57" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y57" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="Y57" s="3"/>
+      <c r="Z57" s="3"/>
       <c r="AA57" s="3" t="s">
         <v>0</v>
       </c>
@@ -9843,590 +10164,520 @@
       <c r="AO57" s="3"/>
     </row>
     <row r="58" spans="1:41">
-      <c r="A58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB58" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="3"/>
-      <c r="AK58" s="3"/>
-      <c r="AL58" s="3"/>
-      <c r="AM58" s="3"/>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:41">
-      <c r="A59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB59" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="3"/>
-      <c r="AK59" s="3"/>
-      <c r="AL59" s="3"/>
-      <c r="AM59" s="3"/>
-      <c r="AN59" s="3"/>
-      <c r="AO59" s="3"/>
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:41">
-      <c r="A60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB60" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3"/>
-      <c r="AH60" s="3"/>
-      <c r="AI60" s="3"/>
-      <c r="AJ60" s="3"/>
-      <c r="AK60" s="3"/>
-      <c r="AL60" s="3"/>
-      <c r="AM60" s="3"/>
-      <c r="AN60" s="3"/>
-      <c r="AO60" s="3"/>
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:41">
-      <c r="A61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB61" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
-      <c r="AG61" s="3"/>
-      <c r="AH61" s="3"/>
-      <c r="AI61" s="3"/>
-      <c r="AJ61" s="3"/>
-      <c r="AK61" s="3"/>
-      <c r="AL61" s="3"/>
-      <c r="AM61" s="3"/>
-      <c r="AN61" s="3"/>
-      <c r="AO61" s="3"/>
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:41">
-      <c r="A62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB62" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-      <c r="AH62" s="3"/>
-      <c r="AI62" s="3"/>
-      <c r="AJ62" s="3"/>
-      <c r="AK62" s="3"/>
-      <c r="AL62" s="3"/>
-      <c r="AM62" s="3"/>
-      <c r="AN62" s="3"/>
-      <c r="AO62" s="3"/>
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:41">
-      <c r="A63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="G63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="I63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="K63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="P63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="R63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="S63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="T63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="U63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="V63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="W63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="X63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB63" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
-      <c r="AK63" s="3"/>
-      <c r="AL63" s="3"/>
-      <c r="AM63" s="3"/>
-      <c r="AN63" s="3"/>
-      <c r="AO63" s="3"/>
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="2" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:41">
       <c r="A64" s="2" t="s">
@@ -11202,527 +11453,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:28">
-      <c r="A73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA73" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB73" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28">
-      <c r="A74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA74" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB74" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28">
-      <c r="A75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA75" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB75" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28">
-      <c r="A76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA76" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB76" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28">
-      <c r="A77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB77" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28">
-      <c r="A78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="T78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="X78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Z78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA78" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="AB78" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="Q12:U16"/>
-    <mergeCell ref="P10:Y10"/>
-    <mergeCell ref="A1:AO6"/>
+  <mergeCells count="2">
+    <mergeCell ref="Q6:U10"/>
+    <mergeCell ref="P4:Y4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11733,7 +11467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G221"/>
   <sheetViews>
-    <sheetView topLeftCell="A155" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A68" sqref="A1:G221"/>
     </sheetView>
   </sheetViews>
@@ -11772,28 +11506,28 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.5" thickBot="1">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
-      <c r="G3" s="46">
+      <c r="G3" s="51">
         <f>SUM(D3:D9)</f>
         <v>5</v>
       </c>
@@ -12473,15 +12207,15 @@
       </c>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="51" t="s">
+      <c r="A47" s="41" t="s">
         <v>65</v>
       </c>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="13" t="s">
@@ -12837,7 +12571,7 @@
       <c r="A72" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="B72" s="53" t="s">
+      <c r="B72" s="46" t="s">
         <v>68</v>
       </c>
       <c r="C72" s="9"/>
@@ -12853,7 +12587,7 @@
       <c r="A73" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B73" s="54"/>
+      <c r="B73" s="47"/>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
@@ -12864,7 +12598,7 @@
       <c r="A74" s="15" t="s">
         <v>261</v>
       </c>
-      <c r="B74" s="54"/>
+      <c r="B74" s="47"/>
       <c r="C74" s="9" t="s">
         <v>88</v>
       </c>
@@ -12883,7 +12617,7 @@
       <c r="A75" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="B75" s="55"/>
+      <c r="B75" s="48"/>
       <c r="C75" s="37" t="s">
         <v>90</v>
       </c>
@@ -14318,7 +14052,7 @@
       <c r="A177" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="B177" s="46" t="s">
+      <c r="B177" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C177" s="10"/>
@@ -14626,28 +14360,28 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="14.5" thickBot="1">
-      <c r="A199" s="47" t="s">
+      <c r="A199" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="B199" s="48"/>
-      <c r="C199" s="48"/>
-      <c r="D199" s="48"/>
-      <c r="E199" s="48"/>
-      <c r="F199" s="48"/>
-      <c r="G199" s="48"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="53"/>
+      <c r="D199" s="53"/>
+      <c r="E199" s="53"/>
+      <c r="F199" s="53"/>
+      <c r="G199" s="53"/>
     </row>
     <row r="200" spans="1:7">
       <c r="A200" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="B200" s="46" t="s">
+      <c r="B200" s="51" t="s">
         <v>11</v>
       </c>
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="10"/>
       <c r="F200" s="10"/>
-      <c r="G200" s="46">
+      <c r="G200" s="51">
         <f>SUM(D200:D204)</f>
         <v>1</v>
       </c>
@@ -15001,29 +14735,22 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="G108:G112"/>
-    <mergeCell ref="G120:G130"/>
-    <mergeCell ref="G113:G119"/>
-    <mergeCell ref="G48:G52"/>
-    <mergeCell ref="B72:B75"/>
-    <mergeCell ref="B65:B71"/>
-    <mergeCell ref="B76:B81"/>
-    <mergeCell ref="G76:G81"/>
-    <mergeCell ref="G168:G175"/>
-    <mergeCell ref="A167:G167"/>
-    <mergeCell ref="A176:G176"/>
-    <mergeCell ref="A102:G102"/>
-    <mergeCell ref="G143:G146"/>
-    <mergeCell ref="G131:G142"/>
-    <mergeCell ref="G155:G161"/>
-    <mergeCell ref="G3:G9"/>
-    <mergeCell ref="G10:G15"/>
-    <mergeCell ref="G16:G19"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="G25:G33"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="G216:G219"/>
+    <mergeCell ref="B190:B196"/>
+    <mergeCell ref="B113:B119"/>
+    <mergeCell ref="B177:B189"/>
+    <mergeCell ref="B38:B44"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="B25:B33"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B216:B219"/>
+    <mergeCell ref="B200:B204"/>
+    <mergeCell ref="B205:B209"/>
+    <mergeCell ref="B210:B215"/>
     <mergeCell ref="A199:G199"/>
     <mergeCell ref="G34:G37"/>
     <mergeCell ref="G38:G44"/>
@@ -15040,22 +14767,29 @@
     <mergeCell ref="G58:G64"/>
     <mergeCell ref="G65:G71"/>
     <mergeCell ref="G72:G75"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="G216:G219"/>
-    <mergeCell ref="B190:B196"/>
-    <mergeCell ref="B113:B119"/>
-    <mergeCell ref="B177:B189"/>
-    <mergeCell ref="B38:B44"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="B25:B33"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B216:B219"/>
-    <mergeCell ref="B200:B204"/>
-    <mergeCell ref="B205:B209"/>
-    <mergeCell ref="B210:B215"/>
+    <mergeCell ref="G3:G9"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="G16:G19"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="G25:G33"/>
+    <mergeCell ref="G168:G175"/>
+    <mergeCell ref="A167:G167"/>
+    <mergeCell ref="A176:G176"/>
+    <mergeCell ref="A102:G102"/>
+    <mergeCell ref="G143:G146"/>
+    <mergeCell ref="G131:G142"/>
+    <mergeCell ref="G155:G161"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="G108:G112"/>
+    <mergeCell ref="G120:G130"/>
+    <mergeCell ref="G113:G119"/>
+    <mergeCell ref="G48:G52"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B65:B71"/>
+    <mergeCell ref="B76:B81"/>
+    <mergeCell ref="G76:G81"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15066,7 +14800,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
@@ -15092,8 +14826,8 @@
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="22" style="56" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="22" style="38" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="38" customWidth="1"/>
     <col min="4" max="4" width="20.58203125" customWidth="1"/>
     <col min="5" max="5" width="15.1640625" customWidth="1"/>
     <col min="6" max="6" width="19.4140625" customWidth="1"/>
@@ -15123,11 +14857,11 @@
       <c r="A2" t="s">
         <v>238</v>
       </c>
-      <c r="B2" s="56">
+      <c r="B2" s="38">
         <f>'Adaptation Scores'!E46</f>
         <v>50</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="38">
         <f>'Adaptation Scores'!F46</f>
         <v>86.666666666666671</v>
       </c>
@@ -15145,11 +14879,11 @@
       <c r="A3" t="s">
         <v>239</v>
       </c>
-      <c r="B3" s="56">
+      <c r="B3" s="38">
         <f>'Adaptation Scores'!E198</f>
         <v>53.333333333333336</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="38">
         <f>'Adaptation Scores'!F198</f>
         <v>90</v>
       </c>
@@ -15167,11 +14901,11 @@
       <c r="A4" t="s">
         <v>240</v>
       </c>
-      <c r="B4" s="56">
+      <c r="B4" s="38">
         <f>'Adaptation Scores'!E101</f>
         <v>53.333333333333336</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="38">
         <f>'Adaptation Scores'!F101</f>
         <v>83.333333333333343</v>
       </c>
@@ -15189,11 +14923,11 @@
       <c r="A5" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="38">
         <f>'Adaptation Scores'!E221</f>
         <v>50</v>
       </c>
-      <c r="C5" s="56">
+      <c r="C5" s="38">
         <f>'Adaptation Scores'!F221</f>
         <v>80</v>
       </c>
@@ -15443,15 +15177,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="c9e14a7e-ff89-4a36-9ad2-e69af96f8643">
@@ -15460,6 +15185,15 @@
     <TaxCatchAll xmlns="0ce68609-2ddd-407a-86eb-1e3f1b6ebb4c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15482,14 +15216,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87755911-9F24-4CE3-B800-AD2D917B491F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1A86107-FC05-4FAF-8070-92E9B5E6B769}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -15504,4 +15230,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{87755911-9F24-4CE3-B800-AD2D917B491F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>